--- a/SCBAA/2018/Region 1.xlsx
+++ b/SCBAA/2018/Region 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\RESEARCH\2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5F8240-7DEE-4313-9D73-CFEBA6AF0138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54793A2E-5C6F-48B1-AE9E-FC6B4BA30FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="675" windowWidth="13650" windowHeight="12495" firstSheet="5" activeTab="8" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
   </bookViews>
   <sheets>
     <sheet name="Alaminos" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3428,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A738207-B681-430E-9E8C-4313573AEE72}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,7 +3989,9 @@
       <c r="D52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="41"/>
+      <c r="E52" s="41">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -6990,8 +6999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22607DA1-0EA8-46AE-9631-EDBF20D80164}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7137,7 +7146,9 @@
       <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="59"/>
+      <c r="E13" s="59">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
@@ -7543,7 +7554,9 @@
       <c r="D52" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="58"/>
+      <c r="E52" s="58">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
@@ -10552,7 +10565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AC286-7222-4FAB-AFD8-C03CB5888CFC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/SCBAA/2018/Region 1.xlsx
+++ b/SCBAA/2018/Region 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54793A2E-5C6F-48B1-AE9E-FC6B4BA30FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9444C1AD-11C5-4D77-87A0-3B690D5AB546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="2" activeTab="2" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
+    <workbookView xWindow="3180" yWindow="1005" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="8" xr2:uid="{A6922D77-BD91-4097-BA02-FD7CEE9AA221}"/>
   </bookViews>
   <sheets>
     <sheet name="Alaminos" sheetId="2" r:id="rId1"/>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C074078-1F4D-40DE-835A-B40813FC6D82}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H105" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1154,7 +1154,6 @@
         <v>7</v>
       </c>
       <c r="E11" s="45">
-        <f>18950413.29+25621594.74</f>
         <v>44572008.030000001</v>
       </c>
     </row>
@@ -1188,7 +1187,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>83386223.810000002</v>
       </c>
     </row>
@@ -1209,7 +1207,6 @@
         <v>12</v>
       </c>
       <c r="E16" s="45">
-        <f>10834235.9+24240.67</f>
         <v>10858476.57</v>
       </c>
     </row>
@@ -1243,7 +1240,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>75837853.859999999</v>
       </c>
     </row>
@@ -1434,7 +1430,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>683924630.20000005</v>
       </c>
     </row>
@@ -1491,7 +1486,6 @@
         <v>38</v>
       </c>
       <c r="E43" s="45">
-        <f>SUM(95321108.12-2412394.28)+10732633.09</f>
         <v>103641346.93000001</v>
       </c>
     </row>
@@ -1503,7 +1497,6 @@
         <v>39</v>
       </c>
       <c r="E44" s="45">
-        <f>888368+7919992.78</f>
         <v>8808360.7800000012</v>
       </c>
     </row>
@@ -1524,7 +1517,6 @@
         <v>37</v>
       </c>
       <c r="E46" s="45">
-        <f>3476643.09</f>
         <v>3476643.09</v>
       </c>
     </row>
@@ -1536,7 +1528,6 @@
         <v>38</v>
       </c>
       <c r="E47" s="45">
-        <f>14315877.31+10767990.01</f>
         <v>25083867.32</v>
       </c>
     </row>
@@ -1548,7 +1539,6 @@
         <v>39</v>
       </c>
       <c r="E48" s="45">
-        <f>1488784.8</f>
         <v>1488784.8</v>
       </c>
     </row>
@@ -1580,7 +1570,6 @@
         <v>38</v>
       </c>
       <c r="E51" s="45">
-        <f>2066560.69+6000000</f>
         <v>8066560.6899999995</v>
       </c>
     </row>
@@ -1707,7 +1696,6 @@
         <v>38</v>
       </c>
       <c r="E63" s="45">
-        <f>SUM(3966521.81-386024)+16443021.3</f>
         <v>20023519.109999999</v>
       </c>
     </row>
@@ -1739,7 +1727,6 @@
         <v>37</v>
       </c>
       <c r="E66" s="45">
-        <f>36843505.36+8664484.18</f>
         <v>45507989.539999999</v>
       </c>
     </row>
@@ -1751,7 +1738,6 @@
         <v>38</v>
       </c>
       <c r="E67" s="45">
-        <f>5113866.64+15962687.78+32977758.56</f>
         <v>54054312.979999997</v>
       </c>
     </row>
@@ -1763,7 +1749,6 @@
         <v>39</v>
       </c>
       <c r="E68" s="45">
-        <f>731260+3688628.79</f>
         <v>4419888.79</v>
       </c>
     </row>
@@ -1897,7 +1882,6 @@
         <v>52</v>
       </c>
       <c r="E81" s="45">
-        <f>12699651.46</f>
         <v>12699651.460000001</v>
       </c>
     </row>
@@ -1909,7 +1893,6 @@
         <v>53</v>
       </c>
       <c r="E82" s="45">
-        <f>18253326.68-244475.21</f>
         <v>18008851.469999999</v>
       </c>
     </row>
@@ -1961,7 +1944,6 @@
         <v>52</v>
       </c>
       <c r="E87" s="45">
-        <f>2412394.28+386024</f>
         <v>2798418.28</v>
       </c>
     </row>
@@ -2004,7 +1986,6 @@
         <v>52</v>
       </c>
       <c r="E91" s="45">
-        <f>10802141</f>
         <v>10802141</v>
       </c>
     </row>
@@ -2025,7 +2006,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="26">
-        <f>SUM(E41:E92)</f>
         <v>565538976.25000012</v>
       </c>
     </row>
@@ -2057,7 +2037,6 @@
         <v>39</v>
       </c>
       <c r="E96" s="45">
-        <f>26950+2479274</f>
         <v>2506224</v>
       </c>
       <c r="F96" s="28"/>
@@ -2084,7 +2063,6 @@
         <v>39</v>
       </c>
       <c r="E98" s="45">
-        <f>5822770.01</f>
         <v>5822770.0099999998</v>
       </c>
     </row>
@@ -2175,7 +2153,6 @@
         <v>39</v>
       </c>
       <c r="E108" s="45">
-        <f>38225225.17+944536.21+4727520.89</f>
         <v>43897282.270000003</v>
       </c>
     </row>
@@ -2203,7 +2180,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="30">
-        <f>SUM(E95:E110)</f>
         <v>64733255.109999999</v>
       </c>
     </row>
@@ -2215,7 +2191,6 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="33">
-        <f>SUM(E93,E111)</f>
         <v>630272231.36000013</v>
       </c>
     </row>
@@ -2237,7 +2212,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="G26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,7 +2336,6 @@
         <v>7</v>
       </c>
       <c r="E11" s="48">
-        <f>13757577.23+10491021.88</f>
         <v>24248599.109999999</v>
       </c>
     </row>
@@ -2373,7 +2347,6 @@
         <v>8</v>
       </c>
       <c r="E12" s="48">
-        <f>36664178.01</f>
         <v>36664178.009999998</v>
       </c>
     </row>
@@ -2396,7 +2369,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>62587428.899999999</v>
       </c>
     </row>
@@ -2417,7 +2389,6 @@
         <v>12</v>
       </c>
       <c r="E16" s="48">
-        <f>4631259+55349.13</f>
         <v>4686608.13</v>
       </c>
     </row>
@@ -2440,7 +2411,6 @@
         <v>14</v>
       </c>
       <c r="E18" s="48">
-        <f>60297969.67</f>
         <v>60297969.670000002</v>
       </c>
     </row>
@@ -2452,7 +2422,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>64984577.800000004</v>
       </c>
     </row>
@@ -2643,7 +2612,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>537381607.70000005</v>
       </c>
     </row>
@@ -2689,7 +2657,6 @@
         <v>37</v>
       </c>
       <c r="E42" s="49">
-        <f>63184604.5+663498.54-90602.17</f>
         <v>63757500.869999997</v>
       </c>
     </row>
@@ -2701,7 +2668,6 @@
         <v>38</v>
       </c>
       <c r="E43" s="49">
-        <f>41009983.2+215000-663498.54+90602.17+3690076.28</f>
         <v>44342163.110000007</v>
       </c>
     </row>
@@ -2943,7 +2909,6 @@
         <v>37</v>
       </c>
       <c r="E66" s="49">
-        <f>30874299.65-60188.6-9000.06</f>
         <v>30805110.989999998</v>
       </c>
     </row>
@@ -2955,7 +2920,6 @@
         <v>38</v>
       </c>
       <c r="E67" s="49">
-        <f>61892178+60188.6+9000.06</f>
         <v>61961366.660000004</v>
       </c>
     </row>
@@ -3069,7 +3033,6 @@
         <v>52</v>
       </c>
       <c r="E78" s="49">
-        <f>8419545.19+550873.2</f>
         <v>8970418.3899999987</v>
       </c>
     </row>
@@ -3225,7 +3188,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="26">
-        <f>SUM(E41:E92)</f>
         <v>346842953.69999999</v>
       </c>
     </row>
@@ -3373,7 +3335,6 @@
         <v>39</v>
       </c>
       <c r="E108" s="49">
-        <f>16261530.81</f>
         <v>16261530.810000001</v>
       </c>
     </row>
@@ -3393,7 +3354,6 @@
         <v>39</v>
       </c>
       <c r="E110" s="50">
-        <f>1199704.93+7953199.26+2600006.44+16907474.9</f>
         <v>28660385.529999997</v>
       </c>
     </row>
@@ -3402,7 +3362,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="38">
-        <f>SUM(E95:E110)</f>
         <v>83758792.200000003</v>
       </c>
     </row>
@@ -3414,7 +3373,6 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="33">
-        <f>SUM(E93,E111)</f>
         <v>430601745.89999998</v>
       </c>
     </row>
@@ -3435,7 +3393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A738207-B681-430E-9E8C-4313573AEE72}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -7000,7 +6958,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,7 +7082,6 @@
         <v>7</v>
       </c>
       <c r="E11" s="57">
-        <f>41803574.82+27745875.25</f>
         <v>69549450.069999993</v>
       </c>
     </row>
@@ -7158,7 +7115,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="61">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>193527863.69999999</v>
       </c>
     </row>
@@ -7212,7 +7168,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>94532546.340000004</v>
       </c>
     </row>
@@ -7403,7 +7358,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>809914784.83999991</v>
       </c>
     </row>
@@ -7980,7 +7934,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="26">
-        <f>SUM(E41:E92)</f>
         <v>528711640.39999992</v>
       </c>
     </row>
@@ -8155,7 +8108,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="38">
-        <f>SUM(E95:E110)</f>
         <v>32667320.659999996</v>
       </c>
     </row>
@@ -8167,7 +8119,6 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="33">
-        <f>SUM(E93,E111)</f>
         <v>561378961.05999994</v>
       </c>
     </row>
@@ -10565,8 +10516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AC286-7222-4FAB-AFD8-C03CB5888CFC}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10723,7 +10674,6 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="11">
-        <f t="shared" ref="E14" si="0">SUM(E11:E13)</f>
         <v>116334461.86</v>
       </c>
     </row>
@@ -10777,7 +10727,6 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="11">
-        <f t="shared" ref="E19" si="1">SUM(E16:E18)</f>
         <v>103522691.83</v>
       </c>
     </row>
@@ -10967,7 +10916,6 @@
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="11">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>628075442.19000006</v>
       </c>
     </row>
@@ -11544,7 +11492,6 @@
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="26">
-        <f>SUM(E41:E92)</f>
         <v>406935774.68000001</v>
       </c>
     </row>
@@ -11711,7 +11658,6 @@
         <v>39</v>
       </c>
       <c r="E110" s="67">
-        <f>4746940.47+1666000</f>
         <v>6412940.4699999997</v>
       </c>
     </row>
@@ -11720,7 +11666,6 @@
         <v>62</v>
       </c>
       <c r="E111" s="38">
-        <f>SUM(E95:E110)</f>
         <v>60985121.43</v>
       </c>
     </row>
@@ -11732,7 +11677,6 @@
       <c r="C112" s="32"/>
       <c r="D112" s="32"/>
       <c r="E112" s="33">
-        <f>SUM(E93,E111)</f>
         <v>467920896.11000001</v>
       </c>
     </row>
